--- a/results.xlsx
+++ b/results.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -188,11 +188,20 @@
   <si>
     <t>Embdedding With BERT ONE Stage</t>
   </si>
+  <si>
+    <t>NN1+NN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Stage + Bert </t>
+  </si>
+  <si>
+    <t>NN St.1 + NN ST .2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -498,9 +507,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -524,186 +530,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,6 +542,213 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D35"/>
+    <sheetView tabSelected="1" topLeftCell="B63" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71:T71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,25 +1086,25 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
       <c r="U2" s="3"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
@@ -1090,25 +1123,25 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
       <c r="U3" s="3"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
@@ -1127,23 +1160,23 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
       <c r="U4" s="3"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -1165,30 +1198,30 @@
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="70"/>
+      <c r="G5" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="60" t="s">
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="54" t="s">
+      <c r="L5" s="78"/>
+      <c r="M5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="56"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="73"/>
       <c r="U5" s="3"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
@@ -1207,31 +1240,31 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="68" t="s">
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="69"/>
-      <c r="O6" s="68" t="s">
+      <c r="N6" s="86"/>
+      <c r="O6" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="68" t="s">
+      <c r="P6" s="86"/>
+      <c r="Q6" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="69"/>
-      <c r="S6" s="68" t="s">
+      <c r="R6" s="86"/>
+      <c r="S6" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="69"/>
+      <c r="T6" s="86"/>
       <c r="U6" s="3"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
@@ -1250,15 +1283,15 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
       <c r="M7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1301,23 +1334,23 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="42" t="s">
+      <c r="F8" s="42"/>
+      <c r="G8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="49" t="s">
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="49"/>
+      <c r="L8" s="56"/>
       <c r="M8" s="6">
         <v>0.81</v>
       </c>
@@ -1360,17 +1393,17 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="50" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="50"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="5">
         <v>0.79</v>
       </c>
@@ -1413,17 +1446,17 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="49" t="s">
+      <c r="D10" s="67"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="49"/>
+      <c r="L10" s="56"/>
       <c r="M10" s="6">
         <v>0.72</v>
       </c>
@@ -1466,17 +1499,17 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="50" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="50"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="5">
         <v>0.79</v>
       </c>
@@ -1519,23 +1552,23 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="42" t="s">
+      <c r="F12" s="48"/>
+      <c r="G12" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="32" t="s">
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="49"/>
+      <c r="L12" s="56"/>
       <c r="M12" s="6">
         <v>0.73</v>
       </c>
@@ -1578,17 +1611,17 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="41" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="50"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="5">
         <v>0.75</v>
       </c>
@@ -1631,19 +1664,19 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="42" t="s">
+      <c r="D14" s="63"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="32" t="s">
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="49"/>
+      <c r="L14" s="56"/>
       <c r="M14" s="6">
         <v>0.7</v>
       </c>
@@ -1686,17 +1719,17 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="41" t="s">
+      <c r="D15" s="63"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="50"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="5">
         <v>0.73</v>
       </c>
@@ -1739,19 +1772,19 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="42" t="s">
+      <c r="D16" s="63"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="32" t="s">
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="49"/>
+      <c r="L16" s="56"/>
       <c r="M16" s="6">
         <v>0.6</v>
       </c>
@@ -1794,17 +1827,17 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="41" t="s">
+      <c r="D17" s="63"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="50"/>
+      <c r="L17" s="54"/>
       <c r="M17" s="5">
         <v>0.7</v>
       </c>
@@ -1847,19 +1880,19 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="42" t="s">
+      <c r="D18" s="63"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="32" t="s">
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="49"/>
+      <c r="L18" s="56"/>
       <c r="M18" s="6">
         <v>0.8</v>
       </c>
@@ -1902,17 +1935,17 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="41" t="s">
+      <c r="D19" s="63"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="50"/>
+      <c r="L19" s="54"/>
       <c r="M19" s="5">
         <v>0.81</v>
       </c>
@@ -1955,19 +1988,19 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="42" t="s">
+      <c r="D20" s="63"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="32" t="s">
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="49"/>
+      <c r="L20" s="56"/>
       <c r="M20" s="6">
         <v>0.78</v>
       </c>
@@ -2010,17 +2043,17 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="41" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="50"/>
+      <c r="L21" s="54"/>
       <c r="M21" s="5">
         <v>0.79</v>
       </c>
@@ -2063,19 +2096,19 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="42" t="s">
+      <c r="D22" s="63"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="32" t="s">
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="49"/>
+      <c r="L22" s="56"/>
       <c r="M22" s="6">
         <v>0.79</v>
       </c>
@@ -2118,17 +2151,17 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="41" t="s">
+      <c r="D23" s="64"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="50"/>
+      <c r="L23" s="54"/>
       <c r="M23" s="5">
         <v>0.83</v>
       </c>
@@ -2171,23 +2204,23 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="73" t="s">
+      <c r="E24" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="76" t="s">
+      <c r="F24" s="61"/>
+      <c r="G24" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="32" t="s">
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="49"/>
+      <c r="L24" s="56"/>
       <c r="M24" s="6">
         <v>0.94</v>
       </c>
@@ -2230,17 +2263,17 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="41" t="s">
+      <c r="D25" s="40"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="50"/>
+      <c r="L25" s="54"/>
       <c r="M25" s="5">
         <v>0.96</v>
       </c>
@@ -2283,19 +2316,19 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="76" t="s">
+      <c r="D26" s="40"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="32" t="s">
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="49"/>
+      <c r="L26" s="56"/>
       <c r="M26" s="6">
         <v>0.85</v>
       </c>
@@ -2338,17 +2371,17 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="41" t="s">
+      <c r="D27" s="40"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="50"/>
+      <c r="L27" s="54"/>
       <c r="M27" s="5">
         <v>0.86</v>
       </c>
@@ -2391,25 +2424,25 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="76" t="s">
+      <c r="D28" s="40"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="32"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="39"/>
       <c r="U28" s="3"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
@@ -2428,17 +2461,17 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="41" t="s">
+      <c r="D29" s="40"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="50"/>
+      <c r="L29" s="54"/>
       <c r="M29" s="5">
         <v>0.83</v>
       </c>
@@ -2481,23 +2514,23 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="76" t="s">
+      <c r="F30" s="55"/>
+      <c r="G30" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="32" t="s">
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="49"/>
+      <c r="L30" s="56"/>
       <c r="M30" s="6">
         <v>0.97</v>
       </c>
@@ -2540,17 +2573,17 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="41" t="s">
+      <c r="D31" s="59"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="50"/>
+      <c r="L31" s="54"/>
       <c r="M31" s="5">
         <v>0.95</v>
       </c>
@@ -2593,19 +2626,19 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="76" t="s">
+      <c r="D32" s="59"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="32" t="s">
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L32" s="49"/>
+      <c r="L32" s="56"/>
       <c r="M32" s="6">
         <v>0.75</v>
       </c>
@@ -2648,17 +2681,17 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="41" t="s">
+      <c r="D33" s="59"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="50"/>
+      <c r="L33" s="54"/>
       <c r="M33" s="5">
         <v>0.74</v>
       </c>
@@ -2701,25 +2734,25 @@
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="76" t="s">
+      <c r="D34" s="59"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="32"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="39"/>
       <c r="U34" s="3"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
@@ -2738,17 +2771,17 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="39" t="s">
+      <c r="D35" s="59"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="L35" s="40"/>
+      <c r="L35" s="37"/>
       <c r="M35" s="5">
         <v>0.8</v>
       </c>
@@ -2791,23 +2824,23 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="80" t="s">
+      <c r="E36" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="44"/>
-      <c r="G36" s="79" t="s">
+      <c r="F36" s="42"/>
+      <c r="G36" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="49" t="s">
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="49"/>
+      <c r="L36" s="56"/>
       <c r="M36" s="8">
         <v>0.89</v>
       </c>
@@ -2850,23 +2883,23 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="41"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="57"/>
       <c r="U37" s="3"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
@@ -2885,19 +2918,19 @@
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="79" t="s">
+      <c r="D38" s="67"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="49" t="s">
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L38" s="49"/>
+      <c r="L38" s="56"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -2924,23 +2957,23 @@
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="41"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="57"/>
       <c r="U39" s="3"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
@@ -2959,19 +2992,19 @@
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="79" t="s">
+      <c r="D40" s="67"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="49" t="s">
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="L40" s="49"/>
+      <c r="L40" s="56"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -2998,23 +3031,23 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="41"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="57"/>
       <c r="U41" s="3"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
@@ -3033,21 +3066,21 @@
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="78" t="s">
+      <c r="D42" s="67"/>
+      <c r="E42" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="F42" s="78"/>
-      <c r="G42" s="79" t="s">
+      <c r="F42" s="55"/>
+      <c r="G42" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="49" t="s">
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="49"/>
+      <c r="L42" s="56"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
@@ -3074,23 +3107,23 @@
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="41"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="57"/>
       <c r="U43" s="3"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
@@ -3109,19 +3142,19 @@
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="79" t="s">
+      <c r="D44" s="67"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="49" t="s">
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="49"/>
+      <c r="L44" s="56"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
@@ -3148,23 +3181,23 @@
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="41"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="57"/>
       <c r="U45" s="3"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
@@ -3183,19 +3216,19 @@
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="79" t="s">
+      <c r="D46" s="67"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="49" t="s">
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="L46" s="49"/>
+      <c r="L46" s="56"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -3222,23 +3255,23 @@
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="41"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="57"/>
       <c r="U47" s="3"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
@@ -3257,23 +3290,23 @@
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="44"/>
-      <c r="G48" s="16" t="s">
+      <c r="F48" s="42"/>
+      <c r="G48" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="31" t="s">
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L48" s="32"/>
+      <c r="L48" s="39"/>
       <c r="M48" s="8">
         <v>0.73</v>
       </c>
@@ -3316,13 +3349,13 @@
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="21"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
       <c r="K49" s="10"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
@@ -3351,19 +3384,19 @@
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="16" t="s">
+      <c r="D50" s="63"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="31" t="s">
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L50" s="32"/>
+      <c r="L50" s="39"/>
       <c r="M50" s="8">
         <v>0.43</v>
       </c>
@@ -3406,13 +3439,13 @@
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="21"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
       <c r="K51" s="10"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -3441,19 +3474,19 @@
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="16" t="s">
+      <c r="D52" s="63"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="31" t="s">
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L52" s="32"/>
+      <c r="L52" s="39"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8">
         <v>0.34</v>
@@ -3488,13 +3521,13 @@
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="21"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
       <c r="K53" s="10"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
@@ -3523,21 +3556,21 @@
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="25" t="s">
+      <c r="D54" s="63"/>
+      <c r="E54" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="16" t="s">
+      <c r="F54" s="48"/>
+      <c r="G54" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="31" t="s">
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L54" s="32"/>
+      <c r="L54" s="39"/>
       <c r="M54" s="8">
         <v>0.97</v>
       </c>
@@ -3580,13 +3613,13 @@
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="21"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
       <c r="K55" s="10"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
@@ -3615,19 +3648,19 @@
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="16" t="s">
+      <c r="D56" s="63"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="31" t="s">
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L56" s="32"/>
+      <c r="L56" s="39"/>
       <c r="M56" s="8">
         <v>0.73</v>
       </c>
@@ -3670,13 +3703,13 @@
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="21"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
       <c r="K57" s="10"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
@@ -3705,19 +3738,19 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="16" t="s">
+      <c r="D58" s="63"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="31" t="s">
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L58" s="32"/>
+      <c r="L58" s="39"/>
       <c r="M58" s="8"/>
       <c r="N58" s="8">
         <v>0.74</v>
@@ -3752,13 +3785,13 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="21"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
       <c r="K59" s="10"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
@@ -3787,29 +3820,45 @@
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="43" t="s">
+      <c r="D60" s="63"/>
+      <c r="E60" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F60" s="44"/>
-      <c r="G60" s="16" t="s">
+      <c r="F60" s="42"/>
+      <c r="G60" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="31" t="s">
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L60" s="32"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="N60" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="O60" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="P60" s="28">
+        <v>0.91</v>
+      </c>
+      <c r="Q60" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="R60" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="S60" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="T60" s="28">
+        <v>0.92</v>
+      </c>
       <c r="U60" s="3"/>
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
@@ -3828,23 +3877,23 @@
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="9"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="29"/>
       <c r="U61" s="3"/>
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
@@ -3863,27 +3912,43 @@
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="16" t="s">
+      <c r="D62" s="63"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="31" t="s">
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L62" s="32"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="28">
+        <v>0.64</v>
+      </c>
+      <c r="N62" s="28">
+        <v>0.63</v>
+      </c>
+      <c r="O62" s="28">
+        <v>0.45</v>
+      </c>
+      <c r="P62" s="28">
+        <v>0.45</v>
+      </c>
+      <c r="Q62" s="28">
+        <v>0.81</v>
+      </c>
+      <c r="R62" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="S62" s="28">
+        <v>0.49</v>
+      </c>
+      <c r="T62" s="28">
+        <v>0.47</v>
+      </c>
       <c r="U62" s="3"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
@@ -3902,23 +3967,23 @@
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="9"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="29"/>
       <c r="U63" s="3"/>
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
@@ -3937,27 +4002,43 @@
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="16" t="s">
+      <c r="D64" s="63"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="31" t="s">
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L64" s="32"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="N64" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="O64" s="28">
+        <v>0.54</v>
+      </c>
+      <c r="P64" s="28">
+        <v>0.51</v>
+      </c>
+      <c r="Q64" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="R64" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="S64" s="28">
+        <v>0.64</v>
+      </c>
+      <c r="T64" s="28">
+        <v>0.54</v>
+      </c>
       <c r="U64" s="3"/>
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
@@ -3976,23 +4057,23 @@
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="9"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="29"/>
       <c r="U65" s="3"/>
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
@@ -4011,29 +4092,45 @@
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="25" t="s">
+      <c r="D66" s="63"/>
+      <c r="E66" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="F66" s="26"/>
-      <c r="G66" s="33" t="s">
+      <c r="F66" s="48"/>
+      <c r="G66" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="31" t="s">
+      <c r="H66" s="89"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="90"/>
+      <c r="K66" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L66" s="32"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="28">
+        <v>0.97</v>
+      </c>
+      <c r="N66" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="O66" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="P66" s="28">
+        <v>0.93</v>
+      </c>
+      <c r="Q66" s="28">
+        <v>0.97</v>
+      </c>
+      <c r="R66" s="28">
+        <v>0.93</v>
+      </c>
+      <c r="S66" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="T66" s="28">
+        <v>0.93</v>
+      </c>
       <c r="U66" s="3"/>
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
@@ -4052,23 +4149,23 @@
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
-      <c r="T67" s="41"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="93"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="57"/>
       <c r="U67" s="3"/>
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
@@ -4087,27 +4184,43 @@
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="33" t="s">
+      <c r="D68" s="63"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="31" t="s">
+      <c r="H68" s="89"/>
+      <c r="I68" s="89"/>
+      <c r="J68" s="90"/>
+      <c r="K68" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L68" s="32"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="N68" s="28">
+        <v>0.66</v>
+      </c>
+      <c r="O68" s="28">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P68" s="28">
+        <v>0.52</v>
+      </c>
+      <c r="Q68" s="28">
+        <v>0.83</v>
+      </c>
+      <c r="R68" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="S68" s="28">
+        <v>0.61</v>
+      </c>
+      <c r="T68" s="28">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="U68" s="3"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
@@ -4126,23 +4239,23 @@
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="41"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="92"/>
+      <c r="I69" s="92"/>
+      <c r="J69" s="93"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="57"/>
       <c r="U69" s="3"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
@@ -4161,27 +4274,43 @@
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="33" t="s">
+      <c r="D70" s="63"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="31" t="s">
+      <c r="H70" s="89"/>
+      <c r="I70" s="89"/>
+      <c r="J70" s="90"/>
+      <c r="K70" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L70" s="32"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="28">
+        <v>0.77</v>
+      </c>
+      <c r="N70" s="28">
+        <v>0.72</v>
+      </c>
+      <c r="O70" s="28">
+        <v>0.63</v>
+      </c>
+      <c r="P70" s="28">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q70" s="28">
+        <v>0.83</v>
+      </c>
+      <c r="R70" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="S70" s="28">
+        <v>0.67</v>
+      </c>
+      <c r="T70" s="28">
+        <v>0.62</v>
+      </c>
       <c r="U70" s="3"/>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
@@ -4200,23 +4329,23 @@
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="40"/>
-      <c r="N71" s="40"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="41"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="93"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="57"/>
       <c r="U71" s="3"/>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
@@ -4235,31 +4364,47 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="74" t="s">
+      <c r="D72" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E72" s="43" t="s">
+      <c r="E72" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="44"/>
-      <c r="G72" s="16" t="s">
+      <c r="F72" s="42"/>
+      <c r="G72" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="31" t="s">
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L72" s="32"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-      <c r="S72" s="12"/>
-      <c r="T72" s="12"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="28">
+        <v>0.83</v>
+      </c>
+      <c r="N72" s="28">
+        <v>0.82</v>
+      </c>
+      <c r="O72" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="P72" s="28">
+        <v>0.77</v>
+      </c>
+      <c r="Q72" s="28">
+        <v>0.82</v>
+      </c>
+      <c r="R72" s="28">
+        <v>0.81</v>
+      </c>
+      <c r="S72" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="T72" s="28">
+        <v>0.79</v>
+      </c>
       <c r="U72" s="3"/>
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
@@ -4278,23 +4423,41 @@
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="15"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L73" s="54"/>
+      <c r="M73" s="34">
+        <v>0.93</v>
+      </c>
+      <c r="N73" s="34">
+        <v>0.92</v>
+      </c>
+      <c r="O73" s="34">
+        <v>0.91</v>
+      </c>
+      <c r="P73" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="Q73" s="34">
+        <v>0.93</v>
+      </c>
+      <c r="R73" s="34">
+        <v>0.92</v>
+      </c>
+      <c r="S73" s="34">
+        <v>0.92</v>
+      </c>
+      <c r="T73" s="34">
+        <v>0.91</v>
+      </c>
       <c r="U73" s="3"/>
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
@@ -4313,27 +4476,43 @@
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="16" t="s">
+      <c r="D74" s="40"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="31" t="s">
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L74" s="32"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="28">
+        <v>0.46</v>
+      </c>
+      <c r="N74" s="28">
+        <v>0.45</v>
+      </c>
+      <c r="O74" s="28">
+        <v>0.19</v>
+      </c>
+      <c r="P74" s="27">
+        <v>0.19</v>
+      </c>
+      <c r="Q74" s="28">
+        <v>0.34</v>
+      </c>
+      <c r="R74" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="S74" s="28">
+        <v>0.16</v>
+      </c>
+      <c r="T74" s="28">
+        <v>0.15</v>
+      </c>
       <c r="U74" s="3"/>
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
@@ -4352,23 +4531,41 @@
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
-      <c r="T75" s="15"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L75" s="54"/>
+      <c r="M75" s="34">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N75" s="34">
+        <v>0.53</v>
+      </c>
+      <c r="O75" s="34">
+        <v>0.37</v>
+      </c>
+      <c r="P75" s="34">
+        <v>0.34</v>
+      </c>
+      <c r="Q75" s="34">
+        <v>0.38</v>
+      </c>
+      <c r="R75" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="S75" s="34">
+        <v>0.37</v>
+      </c>
+      <c r="T75" s="34">
+        <v>0.33</v>
+      </c>
       <c r="U75" s="3"/>
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
@@ -4387,27 +4584,43 @@
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="16" t="s">
+      <c r="D76" s="40"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="31" t="s">
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="32"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12"/>
-      <c r="T76" s="12"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="33">
+        <v>0.64</v>
+      </c>
+      <c r="N76" s="33">
+        <v>0.62</v>
+      </c>
+      <c r="O76" s="33">
+        <v>0.44</v>
+      </c>
+      <c r="P76" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="Q76" s="33">
+        <v>0.45</v>
+      </c>
+      <c r="R76" s="33">
+        <v>0.42</v>
+      </c>
+      <c r="S76" s="33">
+        <v>0.44</v>
+      </c>
+      <c r="T76" s="33">
+        <v>0.39</v>
+      </c>
       <c r="U76" s="3"/>
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
@@ -4426,23 +4639,41 @@
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="14"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="14"/>
-      <c r="T77" s="15"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="L77" s="54"/>
+      <c r="M77" s="34">
+        <v>0.74</v>
+      </c>
+      <c r="N77" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="O77" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="P77" s="34">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q77" s="34">
+        <v>0.65</v>
+      </c>
+      <c r="R77" s="34">
+        <v>0.61</v>
+      </c>
+      <c r="S77" s="34">
+        <v>0.63</v>
+      </c>
+      <c r="T77" s="34">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="U77" s="3"/>
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
@@ -4461,29 +4692,45 @@
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="25" t="s">
+      <c r="D78" s="40"/>
+      <c r="E78" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="F78" s="26"/>
-      <c r="G78" s="16" t="s">
+      <c r="F78" s="48"/>
+      <c r="G78" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="31" t="s">
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L78" s="32"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
-      <c r="S78" s="12"/>
-      <c r="T78" s="12"/>
+      <c r="L78" s="56"/>
+      <c r="M78" s="33">
+        <v>0.83</v>
+      </c>
+      <c r="N78" s="33">
+        <v>0.81</v>
+      </c>
+      <c r="O78" s="33">
+        <v>0.78</v>
+      </c>
+      <c r="P78" s="33">
+        <v>0.77</v>
+      </c>
+      <c r="Q78" s="33">
+        <v>0.82</v>
+      </c>
+      <c r="R78" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="S78" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="T78" s="33">
+        <v>0.79</v>
+      </c>
       <c r="U78" s="3"/>
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
@@ -4502,23 +4749,41 @@
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="14"/>
-      <c r="P79" s="14"/>
-      <c r="Q79" s="14"/>
-      <c r="R79" s="14"/>
-      <c r="S79" s="14"/>
-      <c r="T79" s="15"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L79" s="54"/>
+      <c r="M79" s="34">
+        <v>0.93</v>
+      </c>
+      <c r="N79" s="34">
+        <v>0.92</v>
+      </c>
+      <c r="O79" s="34">
+        <v>0.91</v>
+      </c>
+      <c r="P79" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="Q79" s="34">
+        <v>0.92</v>
+      </c>
+      <c r="R79" s="34">
+        <v>0.91</v>
+      </c>
+      <c r="S79" s="34">
+        <v>0.91</v>
+      </c>
+      <c r="T79" s="34">
+        <v>0.91</v>
+      </c>
       <c r="U79" s="3"/>
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
@@ -4537,27 +4802,43 @@
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="16" t="s">
+      <c r="D80" s="40"/>
+      <c r="E80" s="49"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="31" t="s">
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L80" s="32"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
-      <c r="S80" s="12"/>
-      <c r="T80" s="12"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="33">
+        <v>0.46</v>
+      </c>
+      <c r="N80" s="33">
+        <v>0.45</v>
+      </c>
+      <c r="O80" s="33">
+        <v>0.19</v>
+      </c>
+      <c r="P80" s="33">
+        <v>0.19</v>
+      </c>
+      <c r="Q80" s="33">
+        <v>0.34</v>
+      </c>
+      <c r="R80" s="33">
+        <v>0.33</v>
+      </c>
+      <c r="S80" s="33">
+        <v>0.16</v>
+      </c>
+      <c r="T80" s="33">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="U80" s="3"/>
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
@@ -4576,23 +4857,41 @@
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="14"/>
-      <c r="Q81" s="14"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="15"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L81" s="54"/>
+      <c r="M81" s="34">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N81" s="34">
+        <v>0.53</v>
+      </c>
+      <c r="O81" s="34">
+        <v>0.49</v>
+      </c>
+      <c r="P81" s="34">
+        <v>0.47</v>
+      </c>
+      <c r="Q81" s="34">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R81" s="34">
+        <v>0.53</v>
+      </c>
+      <c r="S81" s="34">
+        <v>0.51</v>
+      </c>
+      <c r="T81" s="34">
+        <v>0.41</v>
+      </c>
       <c r="U81" s="3"/>
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
@@ -4611,27 +4910,43 @@
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="16" t="s">
+      <c r="D82" s="40"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="31" t="s">
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="L82" s="32"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="12"/>
-      <c r="T82" s="12"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="N82" s="33">
+        <v>0.38</v>
+      </c>
+      <c r="O82" s="33">
+        <v>0.35</v>
+      </c>
+      <c r="P82" s="33">
+        <v>0.31</v>
+      </c>
+      <c r="Q82" s="33">
+        <v>0.35</v>
+      </c>
+      <c r="R82" s="32">
+        <v>0.27</v>
+      </c>
+      <c r="S82" s="33">
+        <v>0.35</v>
+      </c>
+      <c r="T82" s="33">
+        <v>0.26</v>
+      </c>
       <c r="U82" s="3"/>
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
@@ -4650,23 +4965,41 @@
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="14"/>
-      <c r="R83" s="14"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="15"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="L83" s="54"/>
+      <c r="M83" s="34">
+        <v>0.73</v>
+      </c>
+      <c r="N83" s="34">
+        <v>0.69</v>
+      </c>
+      <c r="O83" s="34">
+        <v>0.62</v>
+      </c>
+      <c r="P83" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="Q83" s="34">
+        <v>0.67</v>
+      </c>
+      <c r="R83" s="34">
+        <v>0.63</v>
+      </c>
+      <c r="S83" s="34">
+        <v>0.64</v>
+      </c>
+      <c r="T83" s="34">
+        <v>0.61</v>
+      </c>
       <c r="U83" s="3"/>
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
@@ -4685,29 +5018,45 @@
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="43" t="s">
+      <c r="D84" s="40"/>
+      <c r="E84" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F84" s="44"/>
-      <c r="G84" s="16" t="s">
+      <c r="F84" s="42"/>
+      <c r="G84" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L84" s="32"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
-      <c r="T84" s="12"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L84" s="39"/>
+      <c r="M84" s="28">
+        <v>0.93</v>
+      </c>
+      <c r="N84" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="O84" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="P84" s="28">
+        <v>0.91</v>
+      </c>
+      <c r="Q84" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="R84" s="28">
+        <v>0.91</v>
+      </c>
+      <c r="S84" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="T84" s="28">
+        <v>0.91</v>
+      </c>
       <c r="U84" s="3"/>
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
@@ -4726,23 +5075,25 @@
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="74"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="14"/>
-      <c r="Q85" s="14"/>
-      <c r="R85" s="14"/>
-      <c r="S85" s="14"/>
-      <c r="T85" s="15"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L85" s="37"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="14"/>
       <c r="U85" s="3"/>
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
@@ -4761,27 +5112,43 @@
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="16" t="s">
+      <c r="D86" s="40"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L86" s="32"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="12"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
-      <c r="S86" s="12"/>
-      <c r="T86" s="12"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L86" s="39"/>
+      <c r="M86" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N86" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O86" s="12">
+        <v>0.49</v>
+      </c>
+      <c r="P86" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="Q86" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="R86" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="S86" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="T86" s="12">
+        <v>0.3</v>
+      </c>
       <c r="U86" s="3"/>
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
@@ -4798,23 +5165,41 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C87" s="3"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="14"/>
-      <c r="Q87" s="14"/>
-      <c r="R87" s="14"/>
-      <c r="S87" s="14"/>
-      <c r="T87" s="15"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="L87" s="54"/>
+      <c r="M87" s="34">
+        <v>0.68</v>
+      </c>
+      <c r="N87" s="34">
+        <v>0.61</v>
+      </c>
+      <c r="O87" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="P87" s="34">
+        <v>0.51</v>
+      </c>
+      <c r="Q87" s="34">
+        <v>0.72</v>
+      </c>
+      <c r="R87" s="34">
+        <v>0.61</v>
+      </c>
+      <c r="S87" s="34">
+        <v>0.64</v>
+      </c>
+      <c r="T87" s="34">
+        <v>0.54</v>
+      </c>
       <c r="U87" s="3"/>
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
@@ -4831,27 +5216,43 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C88" s="3"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="16" t="s">
+      <c r="D88" s="40"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="31" t="s">
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L88" s="32"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
-      <c r="T88" s="12"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="N88" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="O88" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="P88" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="Q88" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="R88" s="12">
+        <v>0.61</v>
+      </c>
+      <c r="S88" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="T88" s="12">
+        <v>0.66</v>
+      </c>
       <c r="U88" s="3"/>
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
@@ -4868,23 +5269,41 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C89" s="3"/>
-      <c r="D89" s="74"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="14"/>
-      <c r="P89" s="14"/>
-      <c r="Q89" s="14"/>
-      <c r="R89" s="14"/>
-      <c r="S89" s="14"/>
-      <c r="T89" s="15"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="L89" s="54"/>
+      <c r="M89" s="35">
+        <v>0.67</v>
+      </c>
+      <c r="N89" s="35">
+        <v>0.6</v>
+      </c>
+      <c r="O89" s="35">
+        <v>0.65</v>
+      </c>
+      <c r="P89" s="35">
+        <v>0.6</v>
+      </c>
+      <c r="Q89" s="35">
+        <v>0.63</v>
+      </c>
+      <c r="R89" s="35">
+        <v>0.6</v>
+      </c>
+      <c r="S89" s="35">
+        <v>0.62</v>
+      </c>
+      <c r="T89" s="35">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="U89" s="3"/>
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
@@ -4901,29 +5320,45 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C90" s="3"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="78" t="s">
+      <c r="D90" s="40"/>
+      <c r="E90" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="F90" s="78"/>
-      <c r="G90" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" s="79"/>
-      <c r="I90" s="79"/>
-      <c r="J90" s="79"/>
-      <c r="K90" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L90" s="32"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="12"/>
-      <c r="S90" s="12"/>
-      <c r="T90" s="12"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="H90" s="53"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="53"/>
+      <c r="K90" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L90" s="39"/>
+      <c r="M90" s="33">
+        <v>0.74</v>
+      </c>
+      <c r="N90" s="33">
+        <v>0.71</v>
+      </c>
+      <c r="O90" s="33">
+        <v>0.63</v>
+      </c>
+      <c r="P90" s="33">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q90" s="33">
+        <v>0.77</v>
+      </c>
+      <c r="R90" s="33">
+        <v>0.73</v>
+      </c>
+      <c r="S90" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="T90" s="33">
+        <v>0.63</v>
+      </c>
       <c r="U90" s="3"/>
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
@@ -4940,23 +5375,23 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C91" s="3"/>
-      <c r="D91" s="74"/>
-      <c r="E91" s="78"/>
-      <c r="F91" s="78"/>
-      <c r="G91" s="79"/>
-      <c r="H91" s="79"/>
-      <c r="I91" s="79"/>
-      <c r="J91" s="79"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="50"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="50"/>
-      <c r="O91" s="50"/>
-      <c r="P91" s="50"/>
-      <c r="Q91" s="50"/>
-      <c r="R91" s="50"/>
-      <c r="S91" s="50"/>
-      <c r="T91" s="50"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="53"/>
+      <c r="J91" s="53"/>
+      <c r="K91" s="54"/>
+      <c r="L91" s="54"/>
+      <c r="M91" s="54"/>
+      <c r="N91" s="54"/>
+      <c r="O91" s="54"/>
+      <c r="P91" s="54"/>
+      <c r="Q91" s="54"/>
+      <c r="R91" s="54"/>
+      <c r="S91" s="54"/>
+      <c r="T91" s="54"/>
       <c r="U91" s="3"/>
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
@@ -4973,23 +5408,23 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C92" s="3"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="85"/>
-      <c r="I92" s="85"/>
-      <c r="J92" s="85"/>
-      <c r="K92" s="86"/>
-      <c r="L92" s="86"/>
-      <c r="M92" s="87"/>
-      <c r="N92" s="87"/>
-      <c r="O92" s="87"/>
-      <c r="P92" s="87"/>
-      <c r="Q92" s="87"/>
-      <c r="R92" s="87"/>
-      <c r="S92" s="87"/>
-      <c r="T92" s="87"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="26"/>
       <c r="U92" s="3"/>
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
@@ -5006,23 +5441,23 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C93" s="3"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="85"/>
-      <c r="I93" s="85"/>
-      <c r="J93" s="85"/>
-      <c r="K93" s="86"/>
-      <c r="L93" s="86"/>
-      <c r="M93" s="86"/>
-      <c r="N93" s="86"/>
-      <c r="O93" s="86"/>
-      <c r="P93" s="86"/>
-      <c r="Q93" s="86"/>
-      <c r="R93" s="86"/>
-      <c r="S93" s="86"/>
-      <c r="T93" s="86"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="25"/>
+      <c r="R93" s="25"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="25"/>
       <c r="U93" s="3"/>
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
@@ -5039,23 +5474,23 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C94" s="3"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="85"/>
-      <c r="H94" s="85"/>
-      <c r="I94" s="85"/>
-      <c r="J94" s="85"/>
-      <c r="K94" s="86"/>
-      <c r="L94" s="86"/>
-      <c r="M94" s="87"/>
-      <c r="N94" s="87"/>
-      <c r="O94" s="87"/>
-      <c r="P94" s="87"/>
-      <c r="Q94" s="87"/>
-      <c r="R94" s="87"/>
-      <c r="S94" s="87"/>
-      <c r="T94" s="87"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="26"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="26"/>
+      <c r="P94" s="26"/>
+      <c r="Q94" s="26"/>
+      <c r="R94" s="26"/>
+      <c r="S94" s="26"/>
+      <c r="T94" s="26"/>
       <c r="U94" s="3"/>
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
@@ -5072,23 +5507,23 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
-      <c r="D95" s="85"/>
-      <c r="E95" s="85"/>
-      <c r="F95" s="85"/>
-      <c r="G95" s="85"/>
-      <c r="H95" s="85"/>
-      <c r="I95" s="85"/>
-      <c r="J95" s="85"/>
-      <c r="K95" s="86"/>
-      <c r="L95" s="86"/>
-      <c r="M95" s="86"/>
-      <c r="N95" s="86"/>
-      <c r="O95" s="86"/>
-      <c r="P95" s="86"/>
-      <c r="Q95" s="86"/>
-      <c r="R95" s="86"/>
-      <c r="S95" s="86"/>
-      <c r="T95" s="86"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="25"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="25"/>
+      <c r="O95" s="25"/>
+      <c r="P95" s="25"/>
+      <c r="Q95" s="25"/>
+      <c r="R95" s="25"/>
+      <c r="S95" s="25"/>
+      <c r="T95" s="25"/>
       <c r="U95" s="3"/>
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
@@ -5439,28 +5874,28 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="82"/>
-      <c r="I108" s="82"/>
-      <c r="J108" s="82"/>
-      <c r="K108" s="82"/>
-      <c r="L108" s="82"/>
-      <c r="M108" s="82"/>
-      <c r="N108" s="82"/>
-      <c r="O108" s="82"/>
-      <c r="P108" s="82"/>
-      <c r="Q108" s="82"/>
-      <c r="R108" s="82"/>
-      <c r="S108" s="82"/>
-      <c r="T108" s="82"/>
-      <c r="U108" s="82"/>
-      <c r="V108" s="82"/>
-      <c r="W108" s="82"/>
-      <c r="X108" s="82"/>
-      <c r="Y108" s="82"/>
-      <c r="Z108" s="82"/>
-      <c r="AA108" s="82"/>
-      <c r="AB108" s="82"/>
-      <c r="AC108" s="82"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="21"/>
+      <c r="O108" s="21"/>
+      <c r="P108" s="21"/>
+      <c r="Q108" s="21"/>
+      <c r="R108" s="21"/>
+      <c r="S108" s="21"/>
+      <c r="T108" s="21"/>
+      <c r="U108" s="21"/>
+      <c r="V108" s="21"/>
+      <c r="W108" s="21"/>
+      <c r="X108" s="21"/>
+      <c r="Y108" s="21"/>
+      <c r="Z108" s="21"/>
+      <c r="AA108" s="21"/>
+      <c r="AB108" s="21"/>
+      <c r="AC108" s="21"/>
     </row>
     <row r="109" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C109" s="3"/>
@@ -5468,545 +5903,532 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="82"/>
-      <c r="I109" s="82"/>
-      <c r="J109" s="82"/>
-      <c r="K109" s="82"/>
-      <c r="L109" s="82"/>
-      <c r="M109" s="82"/>
-      <c r="N109" s="82"/>
-      <c r="O109" s="82"/>
-      <c r="P109" s="82"/>
-      <c r="Q109" s="82"/>
-      <c r="R109" s="82"/>
-      <c r="S109" s="82"/>
-      <c r="T109" s="82"/>
-      <c r="U109" s="82"/>
-      <c r="V109" s="82"/>
-      <c r="W109" s="82"/>
-      <c r="X109" s="82"/>
-      <c r="Y109" s="82"/>
-      <c r="Z109" s="82"/>
-      <c r="AA109" s="82"/>
-      <c r="AB109" s="82"/>
-      <c r="AC109" s="82"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+      <c r="O109" s="21"/>
+      <c r="P109" s="21"/>
+      <c r="Q109" s="21"/>
+      <c r="R109" s="21"/>
+      <c r="S109" s="21"/>
+      <c r="T109" s="21"/>
+      <c r="U109" s="21"/>
+      <c r="V109" s="21"/>
+      <c r="W109" s="21"/>
+      <c r="X109" s="21"/>
+      <c r="Y109" s="21"/>
+      <c r="Z109" s="21"/>
+      <c r="AA109" s="21"/>
+      <c r="AB109" s="21"/>
+      <c r="AC109" s="21"/>
     </row>
     <row r="110" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="H110" s="82"/>
-      <c r="I110" s="82"/>
-      <c r="J110" s="82"/>
-      <c r="K110" s="82"/>
-      <c r="L110" s="82"/>
-      <c r="M110" s="82"/>
-      <c r="N110" s="82"/>
-      <c r="O110" s="82"/>
-      <c r="P110" s="82"/>
-      <c r="Q110" s="82"/>
-      <c r="R110" s="82"/>
-      <c r="S110" s="82"/>
-      <c r="T110" s="82"/>
-      <c r="U110" s="82"/>
-      <c r="V110" s="82"/>
-      <c r="W110" s="82"/>
-      <c r="X110" s="82"/>
-      <c r="Y110" s="82"/>
-      <c r="Z110" s="82"/>
-      <c r="AA110" s="82"/>
-      <c r="AB110" s="82"/>
-      <c r="AC110" s="82"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21"/>
+      <c r="O110" s="21"/>
+      <c r="P110" s="21"/>
+      <c r="Q110" s="21"/>
+      <c r="R110" s="21"/>
+      <c r="S110" s="21"/>
+      <c r="T110" s="21"/>
+      <c r="U110" s="21"/>
+      <c r="V110" s="21"/>
+      <c r="W110" s="21"/>
+      <c r="X110" s="21"/>
+      <c r="Y110" s="21"/>
+      <c r="Z110" s="21"/>
+      <c r="AA110" s="21"/>
+      <c r="AB110" s="21"/>
+      <c r="AC110" s="21"/>
     </row>
     <row r="111" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="H111" s="82"/>
-      <c r="I111" s="82"/>
-      <c r="J111" s="82"/>
-      <c r="K111" s="82"/>
-      <c r="L111" s="82"/>
-      <c r="M111" s="82"/>
-      <c r="N111" s="82"/>
-      <c r="O111" s="82"/>
-      <c r="P111" s="82"/>
-      <c r="Q111" s="82"/>
-      <c r="R111" s="82"/>
-      <c r="S111" s="82"/>
-      <c r="T111" s="82"/>
-      <c r="U111" s="82"/>
-      <c r="V111" s="82"/>
-      <c r="W111" s="82"/>
-      <c r="X111" s="82"/>
-      <c r="Y111" s="82"/>
-      <c r="Z111" s="82"/>
-      <c r="AA111" s="82"/>
-      <c r="AB111" s="82"/>
-      <c r="AC111" s="82"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="21"/>
+      <c r="O111" s="21"/>
+      <c r="P111" s="21"/>
+      <c r="Q111" s="21"/>
+      <c r="R111" s="21"/>
+      <c r="S111" s="21"/>
+      <c r="T111" s="21"/>
+      <c r="U111" s="21"/>
+      <c r="V111" s="21"/>
+      <c r="W111" s="21"/>
+      <c r="X111" s="21"/>
+      <c r="Y111" s="21"/>
+      <c r="Z111" s="21"/>
+      <c r="AA111" s="21"/>
+      <c r="AB111" s="21"/>
+      <c r="AC111" s="21"/>
     </row>
     <row r="112" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="H112" s="82"/>
-      <c r="I112" s="83"/>
-      <c r="J112" s="83"/>
-      <c r="K112" s="83"/>
-      <c r="L112" s="83"/>
-      <c r="M112" s="83"/>
-      <c r="N112" s="83"/>
-      <c r="O112" s="84"/>
-      <c r="P112" s="84"/>
-      <c r="Q112" s="82"/>
-      <c r="R112" s="82"/>
-      <c r="S112" s="82"/>
-      <c r="T112" s="82"/>
-      <c r="U112" s="82"/>
-      <c r="V112" s="82"/>
-      <c r="W112" s="82"/>
-      <c r="X112" s="82"/>
-      <c r="Y112" s="82"/>
-      <c r="Z112" s="82"/>
-      <c r="AA112" s="82"/>
-      <c r="AB112" s="82"/>
-      <c r="AC112" s="82"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="23"/>
+      <c r="P112" s="23"/>
+      <c r="Q112" s="21"/>
+      <c r="R112" s="21"/>
+      <c r="S112" s="21"/>
+      <c r="T112" s="21"/>
+      <c r="U112" s="21"/>
+      <c r="V112" s="21"/>
+      <c r="W112" s="21"/>
+      <c r="X112" s="21"/>
+      <c r="Y112" s="21"/>
+      <c r="Z112" s="21"/>
+      <c r="AA112" s="21"/>
+      <c r="AB112" s="21"/>
+      <c r="AC112" s="21"/>
     </row>
     <row r="113" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H113" s="82"/>
-      <c r="I113" s="83"/>
-      <c r="J113" s="83"/>
-      <c r="K113" s="83"/>
-      <c r="L113" s="83"/>
-      <c r="M113" s="83"/>
-      <c r="N113" s="83"/>
-      <c r="O113" s="84"/>
-      <c r="P113" s="84"/>
-      <c r="Q113" s="84"/>
-      <c r="R113" s="84"/>
-      <c r="S113" s="84"/>
-      <c r="T113" s="84"/>
-      <c r="U113" s="84"/>
-      <c r="V113" s="84"/>
-      <c r="W113" s="84"/>
-      <c r="X113" s="84"/>
-      <c r="Y113" s="82"/>
-      <c r="Z113" s="82"/>
-      <c r="AA113" s="82"/>
-      <c r="AB113" s="82"/>
-      <c r="AC113" s="82"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="23"/>
+      <c r="P113" s="23"/>
+      <c r="Q113" s="23"/>
+      <c r="R113" s="23"/>
+      <c r="S113" s="23"/>
+      <c r="T113" s="23"/>
+      <c r="U113" s="23"/>
+      <c r="V113" s="23"/>
+      <c r="W113" s="23"/>
+      <c r="X113" s="23"/>
+      <c r="Y113" s="21"/>
+      <c r="Z113" s="21"/>
+      <c r="AA113" s="21"/>
+      <c r="AB113" s="21"/>
+      <c r="AC113" s="21"/>
     </row>
     <row r="114" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H114" s="82"/>
-      <c r="I114" s="83"/>
-      <c r="J114" s="83"/>
-      <c r="K114" s="83"/>
-      <c r="L114" s="83"/>
-      <c r="M114" s="83"/>
-      <c r="N114" s="83"/>
-      <c r="O114" s="84"/>
-      <c r="P114" s="84"/>
-      <c r="Q114" s="82"/>
-      <c r="R114" s="82"/>
-      <c r="S114" s="82"/>
-      <c r="T114" s="82"/>
-      <c r="U114" s="82"/>
-      <c r="V114" s="82"/>
-      <c r="W114" s="82"/>
-      <c r="X114" s="82"/>
-      <c r="Y114" s="82"/>
-      <c r="Z114" s="82"/>
-      <c r="AA114" s="82"/>
-      <c r="AB114" s="82"/>
-      <c r="AC114" s="82"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="22"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="23"/>
+      <c r="P114" s="23"/>
+      <c r="Q114" s="21"/>
+      <c r="R114" s="21"/>
+      <c r="S114" s="21"/>
+      <c r="T114" s="21"/>
+      <c r="U114" s="21"/>
+      <c r="V114" s="21"/>
+      <c r="W114" s="21"/>
+      <c r="X114" s="21"/>
+      <c r="Y114" s="21"/>
+      <c r="Z114" s="21"/>
+      <c r="AA114" s="21"/>
+      <c r="AB114" s="21"/>
+      <c r="AC114" s="21"/>
     </row>
     <row r="115" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H115" s="82"/>
-      <c r="I115" s="83"/>
-      <c r="J115" s="83"/>
-      <c r="K115" s="83"/>
-      <c r="L115" s="83"/>
-      <c r="M115" s="83"/>
-      <c r="N115" s="83"/>
-      <c r="O115" s="84"/>
-      <c r="P115" s="84"/>
-      <c r="Q115" s="84"/>
-      <c r="R115" s="84"/>
-      <c r="S115" s="84"/>
-      <c r="T115" s="84"/>
-      <c r="U115" s="84"/>
-      <c r="V115" s="84"/>
-      <c r="W115" s="84"/>
-      <c r="X115" s="84"/>
-      <c r="Y115" s="82"/>
-      <c r="Z115" s="82"/>
-      <c r="AA115" s="82"/>
-      <c r="AB115" s="82"/>
-      <c r="AC115" s="82"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="22"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="23"/>
+      <c r="P115" s="23"/>
+      <c r="Q115" s="23"/>
+      <c r="R115" s="23"/>
+      <c r="S115" s="23"/>
+      <c r="T115" s="23"/>
+      <c r="U115" s="23"/>
+      <c r="V115" s="23"/>
+      <c r="W115" s="23"/>
+      <c r="X115" s="23"/>
+      <c r="Y115" s="21"/>
+      <c r="Z115" s="21"/>
+      <c r="AA115" s="21"/>
+      <c r="AB115" s="21"/>
+      <c r="AC115" s="21"/>
     </row>
     <row r="116" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H116" s="82"/>
-      <c r="I116" s="83"/>
-      <c r="J116" s="83"/>
-      <c r="K116" s="83"/>
-      <c r="L116" s="83"/>
-      <c r="M116" s="83"/>
-      <c r="N116" s="83"/>
-      <c r="O116" s="84"/>
-      <c r="P116" s="84"/>
-      <c r="Q116" s="82"/>
-      <c r="R116" s="82"/>
-      <c r="S116" s="82"/>
-      <c r="T116" s="82"/>
-      <c r="U116" s="82"/>
-      <c r="V116" s="82"/>
-      <c r="W116" s="82"/>
-      <c r="X116" s="82"/>
-      <c r="Y116" s="82"/>
-      <c r="Z116" s="82"/>
-      <c r="AA116" s="82"/>
-      <c r="AB116" s="82"/>
-      <c r="AC116" s="82"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="22"/>
+      <c r="J116" s="22"/>
+      <c r="K116" s="22"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="22"/>
+      <c r="N116" s="22"/>
+      <c r="O116" s="23"/>
+      <c r="P116" s="23"/>
+      <c r="Q116" s="21"/>
+      <c r="R116" s="21"/>
+      <c r="S116" s="21"/>
+      <c r="T116" s="21"/>
+      <c r="U116" s="21"/>
+      <c r="V116" s="21"/>
+      <c r="W116" s="21"/>
+      <c r="X116" s="21"/>
+      <c r="Y116" s="21"/>
+      <c r="Z116" s="21"/>
+      <c r="AA116" s="21"/>
+      <c r="AB116" s="21"/>
+      <c r="AC116" s="21"/>
     </row>
     <row r="117" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H117" s="82"/>
-      <c r="I117" s="83"/>
-      <c r="J117" s="83"/>
-      <c r="K117" s="83"/>
-      <c r="L117" s="83"/>
-      <c r="M117" s="83"/>
-      <c r="N117" s="83"/>
-      <c r="O117" s="84"/>
-      <c r="P117" s="84"/>
-      <c r="Q117" s="84"/>
-      <c r="R117" s="84"/>
-      <c r="S117" s="84"/>
-      <c r="T117" s="84"/>
-      <c r="U117" s="84"/>
-      <c r="V117" s="84"/>
-      <c r="W117" s="84"/>
-      <c r="X117" s="84"/>
-      <c r="Y117" s="82"/>
-      <c r="Z117" s="82"/>
-      <c r="AA117" s="82"/>
-      <c r="AB117" s="82"/>
-      <c r="AC117" s="82"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="22"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="22"/>
+      <c r="L117" s="22"/>
+      <c r="M117" s="22"/>
+      <c r="N117" s="22"/>
+      <c r="O117" s="23"/>
+      <c r="P117" s="23"/>
+      <c r="Q117" s="23"/>
+      <c r="R117" s="23"/>
+      <c r="S117" s="23"/>
+      <c r="T117" s="23"/>
+      <c r="U117" s="23"/>
+      <c r="V117" s="23"/>
+      <c r="W117" s="23"/>
+      <c r="X117" s="23"/>
+      <c r="Y117" s="21"/>
+      <c r="Z117" s="21"/>
+      <c r="AA117" s="21"/>
+      <c r="AB117" s="21"/>
+      <c r="AC117" s="21"/>
     </row>
     <row r="118" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H118" s="82"/>
-      <c r="I118" s="83"/>
-      <c r="J118" s="83"/>
-      <c r="K118" s="83"/>
-      <c r="L118" s="83"/>
-      <c r="M118" s="83"/>
-      <c r="N118" s="83"/>
-      <c r="O118" s="84"/>
-      <c r="P118" s="84"/>
-      <c r="Q118" s="82"/>
-      <c r="R118" s="82"/>
-      <c r="S118" s="82"/>
-      <c r="T118" s="82"/>
-      <c r="U118" s="82"/>
-      <c r="V118" s="82"/>
-      <c r="W118" s="82"/>
-      <c r="X118" s="82"/>
-      <c r="Y118" s="82"/>
-      <c r="Z118" s="82"/>
-      <c r="AA118" s="82"/>
-      <c r="AB118" s="82"/>
-      <c r="AC118" s="82"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="22"/>
+      <c r="N118" s="22"/>
+      <c r="O118" s="23"/>
+      <c r="P118" s="23"/>
+      <c r="Q118" s="21"/>
+      <c r="R118" s="21"/>
+      <c r="S118" s="21"/>
+      <c r="T118" s="21"/>
+      <c r="U118" s="21"/>
+      <c r="V118" s="21"/>
+      <c r="W118" s="21"/>
+      <c r="X118" s="21"/>
+      <c r="Y118" s="21"/>
+      <c r="Z118" s="21"/>
+      <c r="AA118" s="21"/>
+      <c r="AB118" s="21"/>
+      <c r="AC118" s="21"/>
     </row>
     <row r="119" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H119" s="82"/>
-      <c r="I119" s="83"/>
-      <c r="J119" s="83"/>
-      <c r="K119" s="83"/>
-      <c r="L119" s="83"/>
-      <c r="M119" s="83"/>
-      <c r="N119" s="83"/>
-      <c r="O119" s="84"/>
-      <c r="P119" s="84"/>
-      <c r="Q119" s="84"/>
-      <c r="R119" s="84"/>
-      <c r="S119" s="84"/>
-      <c r="T119" s="84"/>
-      <c r="U119" s="84"/>
-      <c r="V119" s="84"/>
-      <c r="W119" s="84"/>
-      <c r="X119" s="84"/>
-      <c r="Y119" s="82"/>
-      <c r="Z119" s="82"/>
-      <c r="AA119" s="82"/>
-      <c r="AB119" s="82"/>
-      <c r="AC119" s="82"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="22"/>
+      <c r="J119" s="22"/>
+      <c r="K119" s="22"/>
+      <c r="L119" s="22"/>
+      <c r="M119" s="22"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="23"/>
+      <c r="P119" s="23"/>
+      <c r="Q119" s="23"/>
+      <c r="R119" s="23"/>
+      <c r="S119" s="23"/>
+      <c r="T119" s="23"/>
+      <c r="U119" s="23"/>
+      <c r="V119" s="23"/>
+      <c r="W119" s="23"/>
+      <c r="X119" s="23"/>
+      <c r="Y119" s="21"/>
+      <c r="Z119" s="21"/>
+      <c r="AA119" s="21"/>
+      <c r="AB119" s="21"/>
+      <c r="AC119" s="21"/>
     </row>
     <row r="120" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H120" s="82"/>
-      <c r="I120" s="82"/>
-      <c r="J120" s="82"/>
-      <c r="K120" s="82"/>
-      <c r="L120" s="82"/>
-      <c r="M120" s="82"/>
-      <c r="N120" s="82"/>
-      <c r="O120" s="82"/>
-      <c r="P120" s="82"/>
-      <c r="Q120" s="82"/>
-      <c r="R120" s="82"/>
-      <c r="S120" s="82"/>
-      <c r="T120" s="82"/>
-      <c r="U120" s="82"/>
-      <c r="V120" s="82"/>
-      <c r="W120" s="82"/>
-      <c r="X120" s="82"/>
-      <c r="Y120" s="82"/>
-      <c r="Z120" s="82"/>
-      <c r="AA120" s="82"/>
-      <c r="AB120" s="82"/>
-      <c r="AC120" s="82"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="21"/>
+      <c r="J120" s="21"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="21"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="21"/>
+      <c r="O120" s="21"/>
+      <c r="P120" s="21"/>
+      <c r="Q120" s="21"/>
+      <c r="R120" s="21"/>
+      <c r="S120" s="21"/>
+      <c r="T120" s="21"/>
+      <c r="U120" s="21"/>
+      <c r="V120" s="21"/>
+      <c r="W120" s="21"/>
+      <c r="X120" s="21"/>
+      <c r="Y120" s="21"/>
+      <c r="Z120" s="21"/>
+      <c r="AA120" s="21"/>
+      <c r="AB120" s="21"/>
+      <c r="AC120" s="21"/>
     </row>
     <row r="121" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H121" s="82"/>
-      <c r="I121" s="82"/>
-      <c r="J121" s="82"/>
-      <c r="K121" s="82"/>
-      <c r="L121" s="82"/>
-      <c r="M121" s="82"/>
-      <c r="N121" s="82"/>
-      <c r="O121" s="82"/>
-      <c r="P121" s="82"/>
-      <c r="Q121" s="82"/>
-      <c r="R121" s="82"/>
-      <c r="S121" s="82"/>
-      <c r="T121" s="82"/>
-      <c r="U121" s="82"/>
-      <c r="V121" s="82"/>
-      <c r="W121" s="82"/>
-      <c r="X121" s="82"/>
-      <c r="Y121" s="82"/>
-      <c r="Z121" s="82"/>
-      <c r="AA121" s="82"/>
-      <c r="AB121" s="82"/>
-      <c r="AC121" s="82"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+      <c r="O121" s="21"/>
+      <c r="P121" s="21"/>
+      <c r="Q121" s="21"/>
+      <c r="R121" s="21"/>
+      <c r="S121" s="21"/>
+      <c r="T121" s="21"/>
+      <c r="U121" s="21"/>
+      <c r="V121" s="21"/>
+      <c r="W121" s="21"/>
+      <c r="X121" s="21"/>
+      <c r="Y121" s="21"/>
+      <c r="Z121" s="21"/>
+      <c r="AA121" s="21"/>
+      <c r="AB121" s="21"/>
+      <c r="AC121" s="21"/>
     </row>
     <row r="122" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H122" s="82"/>
-      <c r="I122" s="82"/>
-      <c r="J122" s="82"/>
-      <c r="K122" s="82"/>
-      <c r="L122" s="82"/>
-      <c r="M122" s="82"/>
-      <c r="N122" s="82"/>
-      <c r="O122" s="82"/>
-      <c r="P122" s="82"/>
-      <c r="Q122" s="82"/>
-      <c r="R122" s="82"/>
-      <c r="S122" s="82"/>
-      <c r="T122" s="82"/>
-      <c r="U122" s="82"/>
-      <c r="V122" s="82"/>
-      <c r="W122" s="82"/>
-      <c r="X122" s="82"/>
-      <c r="Y122" s="82"/>
-      <c r="Z122" s="82"/>
-      <c r="AA122" s="82"/>
-      <c r="AB122" s="82"/>
-      <c r="AC122" s="82"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="21"/>
+      <c r="O122" s="21"/>
+      <c r="P122" s="21"/>
+      <c r="Q122" s="21"/>
+      <c r="R122" s="21"/>
+      <c r="S122" s="21"/>
+      <c r="T122" s="21"/>
+      <c r="U122" s="21"/>
+      <c r="V122" s="21"/>
+      <c r="W122" s="21"/>
+      <c r="X122" s="21"/>
+      <c r="Y122" s="21"/>
+      <c r="Z122" s="21"/>
+      <c r="AA122" s="21"/>
+      <c r="AB122" s="21"/>
+      <c r="AC122" s="21"/>
     </row>
     <row r="123" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H123" s="82"/>
-      <c r="I123" s="82"/>
-      <c r="J123" s="82"/>
-      <c r="K123" s="82"/>
-      <c r="L123" s="82"/>
-      <c r="M123" s="82"/>
-      <c r="N123" s="82"/>
-      <c r="O123" s="82"/>
-      <c r="P123" s="82"/>
-      <c r="Q123" s="82"/>
-      <c r="R123" s="82"/>
-      <c r="S123" s="82"/>
-      <c r="T123" s="82"/>
-      <c r="U123" s="82"/>
-      <c r="V123" s="82"/>
-      <c r="W123" s="82"/>
-      <c r="X123" s="82"/>
-      <c r="Y123" s="82"/>
-      <c r="Z123" s="82"/>
-      <c r="AA123" s="82"/>
-      <c r="AB123" s="82"/>
-      <c r="AC123" s="82"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21"/>
+      <c r="O123" s="21"/>
+      <c r="P123" s="21"/>
+      <c r="Q123" s="21"/>
+      <c r="R123" s="21"/>
+      <c r="S123" s="21"/>
+      <c r="T123" s="21"/>
+      <c r="U123" s="21"/>
+      <c r="V123" s="21"/>
+      <c r="W123" s="21"/>
+      <c r="X123" s="21"/>
+      <c r="Y123" s="21"/>
+      <c r="Z123" s="21"/>
+      <c r="AA123" s="21"/>
+      <c r="AB123" s="21"/>
+      <c r="AC123" s="21"/>
     </row>
     <row r="124" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H124" s="82"/>
-      <c r="I124" s="82"/>
-      <c r="J124" s="82"/>
-      <c r="K124" s="82"/>
-      <c r="L124" s="82"/>
-      <c r="M124" s="82"/>
-      <c r="N124" s="82"/>
-      <c r="O124" s="82"/>
-      <c r="P124" s="82"/>
-      <c r="Q124" s="82"/>
-      <c r="R124" s="82"/>
-      <c r="S124" s="82"/>
-      <c r="T124" s="82"/>
-      <c r="U124" s="82"/>
-      <c r="V124" s="82"/>
-      <c r="W124" s="82"/>
-      <c r="X124" s="82"/>
-      <c r="Y124" s="82"/>
-      <c r="Z124" s="82"/>
-      <c r="AA124" s="82"/>
-      <c r="AB124" s="82"/>
-      <c r="AC124" s="82"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="21"/>
+      <c r="M124" s="21"/>
+      <c r="N124" s="21"/>
+      <c r="O124" s="21"/>
+      <c r="P124" s="21"/>
+      <c r="Q124" s="21"/>
+      <c r="R124" s="21"/>
+      <c r="S124" s="21"/>
+      <c r="T124" s="21"/>
+      <c r="U124" s="21"/>
+      <c r="V124" s="21"/>
+      <c r="W124" s="21"/>
+      <c r="X124" s="21"/>
+      <c r="Y124" s="21"/>
+      <c r="Z124" s="21"/>
+      <c r="AA124" s="21"/>
+      <c r="AB124" s="21"/>
+      <c r="AC124" s="21"/>
     </row>
     <row r="125" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H125" s="82"/>
-      <c r="I125" s="82"/>
-      <c r="J125" s="82"/>
-      <c r="K125" s="82"/>
-      <c r="L125" s="82"/>
-      <c r="M125" s="82"/>
-      <c r="N125" s="82"/>
-      <c r="O125" s="82"/>
-      <c r="P125" s="82"/>
-      <c r="Q125" s="82"/>
-      <c r="R125" s="82"/>
-      <c r="S125" s="82"/>
-      <c r="T125" s="82"/>
-      <c r="U125" s="82"/>
-      <c r="V125" s="82"/>
-      <c r="W125" s="82"/>
-      <c r="X125" s="82"/>
-      <c r="Y125" s="82"/>
-      <c r="Z125" s="82"/>
-      <c r="AA125" s="82"/>
-      <c r="AB125" s="82"/>
-      <c r="AC125" s="82"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="21"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="21"/>
+      <c r="O125" s="21"/>
+      <c r="P125" s="21"/>
+      <c r="Q125" s="21"/>
+      <c r="R125" s="21"/>
+      <c r="S125" s="21"/>
+      <c r="T125" s="21"/>
+      <c r="U125" s="21"/>
+      <c r="V125" s="21"/>
+      <c r="W125" s="21"/>
+      <c r="X125" s="21"/>
+      <c r="Y125" s="21"/>
+      <c r="Z125" s="21"/>
+      <c r="AA125" s="21"/>
+      <c r="AB125" s="21"/>
+      <c r="AC125" s="21"/>
     </row>
     <row r="126" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H126" s="82"/>
-      <c r="I126" s="82"/>
-      <c r="J126" s="82"/>
-      <c r="K126" s="82"/>
-      <c r="L126" s="82"/>
-      <c r="M126" s="82"/>
-      <c r="N126" s="82"/>
-      <c r="O126" s="82"/>
-      <c r="P126" s="82"/>
-      <c r="Q126" s="82"/>
-      <c r="R126" s="82"/>
-      <c r="S126" s="82"/>
-      <c r="T126" s="82"/>
-      <c r="U126" s="82"/>
-      <c r="V126" s="82"/>
-      <c r="W126" s="82"/>
-      <c r="X126" s="82"/>
-      <c r="Y126" s="82"/>
-      <c r="Z126" s="82"/>
-      <c r="AA126" s="82"/>
-      <c r="AB126" s="82"/>
-      <c r="AC126" s="82"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
+      <c r="J126" s="21"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="21"/>
+      <c r="M126" s="21"/>
+      <c r="N126" s="21"/>
+      <c r="O126" s="21"/>
+      <c r="P126" s="21"/>
+      <c r="Q126" s="21"/>
+      <c r="R126" s="21"/>
+      <c r="S126" s="21"/>
+      <c r="T126" s="21"/>
+      <c r="U126" s="21"/>
+      <c r="V126" s="21"/>
+      <c r="W126" s="21"/>
+      <c r="X126" s="21"/>
+      <c r="Y126" s="21"/>
+      <c r="Z126" s="21"/>
+      <c r="AA126" s="21"/>
+      <c r="AB126" s="21"/>
+      <c r="AC126" s="21"/>
     </row>
     <row r="127" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H127" s="82"/>
-      <c r="I127" s="82"/>
-      <c r="J127" s="82"/>
-      <c r="K127" s="82"/>
-      <c r="L127" s="82"/>
-      <c r="M127" s="82"/>
-      <c r="N127" s="82"/>
-      <c r="O127" s="82"/>
-      <c r="P127" s="82"/>
-      <c r="Q127" s="82"/>
-      <c r="R127" s="82"/>
-      <c r="S127" s="82"/>
-      <c r="T127" s="82"/>
-      <c r="U127" s="82"/>
-      <c r="V127" s="82"/>
-      <c r="W127" s="82"/>
-      <c r="X127" s="82"/>
-      <c r="Y127" s="82"/>
-      <c r="Z127" s="82"/>
-      <c r="AA127" s="82"/>
-      <c r="AB127" s="82"/>
-      <c r="AC127" s="82"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="21"/>
+      <c r="J127" s="21"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="21"/>
+      <c r="M127" s="21"/>
+      <c r="N127" s="21"/>
+      <c r="O127" s="21"/>
+      <c r="P127" s="21"/>
+      <c r="Q127" s="21"/>
+      <c r="R127" s="21"/>
+      <c r="S127" s="21"/>
+      <c r="T127" s="21"/>
+      <c r="U127" s="21"/>
+      <c r="V127" s="21"/>
+      <c r="W127" s="21"/>
+      <c r="X127" s="21"/>
+      <c r="Y127" s="21"/>
+      <c r="Z127" s="21"/>
+      <c r="AA127" s="21"/>
+      <c r="AB127" s="21"/>
+      <c r="AC127" s="21"/>
     </row>
     <row r="128" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H128" s="82"/>
-      <c r="I128" s="82"/>
-      <c r="J128" s="82"/>
-      <c r="K128" s="82"/>
-      <c r="L128" s="82"/>
-      <c r="M128" s="82"/>
-      <c r="N128" s="82"/>
-      <c r="O128" s="82"/>
-      <c r="P128" s="82"/>
-      <c r="Q128" s="82"/>
-      <c r="R128" s="82"/>
-      <c r="S128" s="82"/>
-      <c r="T128" s="82"/>
-      <c r="U128" s="82"/>
-      <c r="V128" s="82"/>
-      <c r="W128" s="82"/>
-      <c r="X128" s="82"/>
-      <c r="Y128" s="82"/>
-      <c r="Z128" s="82"/>
-      <c r="AA128" s="82"/>
-      <c r="AB128" s="82"/>
-      <c r="AC128" s="82"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+      <c r="J128" s="21"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="21"/>
+      <c r="M128" s="21"/>
+      <c r="N128" s="21"/>
+      <c r="O128" s="21"/>
+      <c r="P128" s="21"/>
+      <c r="Q128" s="21"/>
+      <c r="R128" s="21"/>
+      <c r="S128" s="21"/>
+      <c r="T128" s="21"/>
+      <c r="U128" s="21"/>
+      <c r="V128" s="21"/>
+      <c r="W128" s="21"/>
+      <c r="X128" s="21"/>
+      <c r="Y128" s="21"/>
+      <c r="Z128" s="21"/>
+      <c r="AA128" s="21"/>
+      <c r="AB128" s="21"/>
+      <c r="AC128" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="124">
-    <mergeCell ref="D72:D91"/>
-    <mergeCell ref="E72:F77"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="E78:F83"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="E84:F89"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="G90:J91"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="K91:T91"/>
-    <mergeCell ref="E90:F91"/>
-    <mergeCell ref="G38:J39"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="G40:J41"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K60:L60"/>
+  <mergeCells count="133">
+    <mergeCell ref="D36:D47"/>
+    <mergeCell ref="E48:F53"/>
+    <mergeCell ref="E54:F59"/>
+    <mergeCell ref="E60:F65"/>
+    <mergeCell ref="D48:D71"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="E66:F71"/>
+    <mergeCell ref="G66:J67"/>
+    <mergeCell ref="G68:J69"/>
+    <mergeCell ref="G70:J71"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="G44:J45"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:T45"/>
     <mergeCell ref="E36:F41"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="K37:T37"/>
     <mergeCell ref="K39:T39"/>
     <mergeCell ref="K41:T41"/>
     <mergeCell ref="E42:F47"/>
-    <mergeCell ref="G42:J43"/>
-    <mergeCell ref="G46:J47"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:T47"/>
-    <mergeCell ref="G36:J37"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="E30:F35"/>
-    <mergeCell ref="G30:J31"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="G32:J33"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="G34:J35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="E24:F29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="G24:J25"/>
-    <mergeCell ref="G26:J27"/>
-    <mergeCell ref="G28:J29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G8:J11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:F11"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="D2:T2"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D3:T4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="G6:J7"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
@@ -6028,51 +6450,73 @@
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G8:J11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:F11"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="D2:T2"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D3:T4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="G6:J7"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="D36:D47"/>
-    <mergeCell ref="E48:F53"/>
-    <mergeCell ref="E54:F59"/>
-    <mergeCell ref="E60:F65"/>
-    <mergeCell ref="D48:D71"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="E66:F71"/>
-    <mergeCell ref="G66:J67"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="E24:F29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="G24:J25"/>
+    <mergeCell ref="G26:J27"/>
+    <mergeCell ref="G28:J29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="E30:F35"/>
+    <mergeCell ref="G30:J31"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G32:J33"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="G34:J35"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="G42:J43"/>
+    <mergeCell ref="G46:J47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:T47"/>
+    <mergeCell ref="G36:J37"/>
+    <mergeCell ref="G38:J39"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="G40:J41"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K75:L75"/>
     <mergeCell ref="K66:L66"/>
     <mergeCell ref="K67:T67"/>
-    <mergeCell ref="G68:J69"/>
     <mergeCell ref="K68:L68"/>
     <mergeCell ref="K69:T69"/>
-    <mergeCell ref="G70:J71"/>
     <mergeCell ref="K70:L70"/>
     <mergeCell ref="K71:T71"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:T43"/>
-    <mergeCell ref="G44:J45"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="D72:D91"/>
+    <mergeCell ref="E72:F77"/>
+    <mergeCell ref="E78:F83"/>
+    <mergeCell ref="E84:F89"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="G90:J91"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="K91:T91"/>
+    <mergeCell ref="E90:F91"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K85:L85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
